--- a/TestDatas/api_info.xlsx
+++ b/TestDatas/api_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/longbeach/JM_API/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangmu\jm_api_py_test\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,11 +16,8 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1639,15 +1636,6 @@
     <t>mobile=13816661003&amp;code=</t>
   </si>
   <si>
-    <t>accuracy=13816661003</t>
-  </si>
-  <si>
-    <t>accuracy=13816661002</t>
-  </si>
-  <si>
-    <t>accuracy=根本不可能存在</t>
-  </si>
-  <si>
     <t>user=Emb2kCvMzTPW16qv20-Hlg</t>
   </si>
   <si>
@@ -2551,6 +2539,18 @@
   </si>
   <si>
     <t>user=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accuracy":"13816661003"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accuracy":"13816661002"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accuracy":"根本不可能存在"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2657,6 +2657,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2950,24 +2953,24 @@
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="6" width="8.83203125" style="5"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
-    <col min="8" max="8" width="81.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="3"/>
+    <col min="6" max="6" width="8.81640625" style="5"/>
+    <col min="7" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="81.36328125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="13" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -2988,16 +2991,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3024,13 +3027,13 @@
         <v>511</v>
       </c>
       <c r="I2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3051,13 +3054,13 @@
         <v>512</v>
       </c>
       <c r="I3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3078,13 +3081,13 @@
         <v>513</v>
       </c>
       <c r="I4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3105,13 +3108,13 @@
         <v>514</v>
       </c>
       <c r="I5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3132,13 +3135,13 @@
         <v>515</v>
       </c>
       <c r="I6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3158,16 +3161,16 @@
         <v>372</v>
       </c>
       <c r="H7" t="s">
-        <v>516</v>
+        <v>815</v>
       </c>
       <c r="I7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3185,16 +3188,16 @@
         <v>372</v>
       </c>
       <c r="H8" t="s">
-        <v>517</v>
+        <v>816</v>
       </c>
       <c r="I8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3212,16 +3215,16 @@
         <v>372</v>
       </c>
       <c r="H9" t="s">
-        <v>518</v>
+        <v>817</v>
       </c>
       <c r="I9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3239,16 +3242,16 @@
         <v>373</v>
       </c>
       <c r="H10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I10" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>62</v>
@@ -3260,13 +3263,13 @@
         <v>373</v>
       </c>
       <c r="H11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I11" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>63</v>
@@ -3278,13 +3281,13 @@
         <v>373</v>
       </c>
       <c r="H12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I12" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>64</v>
@@ -3296,13 +3299,13 @@
         <v>373</v>
       </c>
       <c r="H13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I13" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>65</v>
@@ -3314,13 +3317,13 @@
         <v>374</v>
       </c>
       <c r="H14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I14" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>66</v>
@@ -3332,13 +3335,13 @@
         <v>374</v>
       </c>
       <c r="H15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I15" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>67</v>
@@ -3350,13 +3353,13 @@
         <v>375</v>
       </c>
       <c r="H16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I16" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>68</v>
@@ -3368,13 +3371,13 @@
         <v>375</v>
       </c>
       <c r="H17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I17" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>69</v>
@@ -3386,10 +3389,10 @@
         <v>376</v>
       </c>
       <c r="I18" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>70</v>
@@ -3401,13 +3404,13 @@
         <v>377</v>
       </c>
       <c r="H19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I19" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" t="s">
         <v>71</v>
@@ -3419,13 +3422,13 @@
         <v>377</v>
       </c>
       <c r="H20" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I20" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" t="s">
         <v>72</v>
@@ -3437,13 +3440,13 @@
         <v>377</v>
       </c>
       <c r="H21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I21" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>73</v>
@@ -3455,10 +3458,10 @@
         <v>378</v>
       </c>
       <c r="I22" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" t="s">
         <v>74</v>
@@ -3470,13 +3473,13 @@
         <v>379</v>
       </c>
       <c r="H23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I23" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>75</v>
@@ -3488,13 +3491,13 @@
         <v>380</v>
       </c>
       <c r="H24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I24" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>76</v>
@@ -3506,10 +3509,10 @@
         <v>373</v>
       </c>
       <c r="I25" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>361</v>
       </c>
@@ -3523,13 +3526,13 @@
         <v>381</v>
       </c>
       <c r="H26" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I26" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>78</v>
@@ -3541,13 +3544,13 @@
         <v>382</v>
       </c>
       <c r="H27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I27" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" t="s">
         <v>79</v>
@@ -3559,13 +3562,13 @@
         <v>382</v>
       </c>
       <c r="H28" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I28" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>80</v>
@@ -3577,13 +3580,13 @@
         <v>382</v>
       </c>
       <c r="H29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I29" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" t="s">
         <v>81</v>
@@ -3595,13 +3598,13 @@
         <v>382</v>
       </c>
       <c r="H30" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I30" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>82</v>
@@ -3613,13 +3616,13 @@
         <v>382</v>
       </c>
       <c r="H31" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I31" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" t="s">
         <v>83</v>
@@ -3631,10 +3634,10 @@
         <v>382</v>
       </c>
       <c r="I32" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" t="s">
         <v>84</v>
@@ -3646,13 +3649,13 @@
         <v>381</v>
       </c>
       <c r="H33" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I33" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>362</v>
       </c>
@@ -3666,10 +3669,10 @@
         <v>383</v>
       </c>
       <c r="I34" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" t="s">
         <v>86</v>
@@ -3681,10 +3684,10 @@
         <v>384</v>
       </c>
       <c r="I35" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" t="s">
         <v>87</v>
@@ -3696,10 +3699,10 @@
         <v>385</v>
       </c>
       <c r="I36" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" t="s">
         <v>88</v>
@@ -3711,13 +3714,13 @@
         <v>386</v>
       </c>
       <c r="H37" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I37" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" t="s">
         <v>89</v>
@@ -3729,13 +3732,13 @@
         <v>386</v>
       </c>
       <c r="H38" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I38" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" t="s">
         <v>90</v>
@@ -3747,13 +3750,13 @@
         <v>386</v>
       </c>
       <c r="H39" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I39" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" t="s">
         <v>91</v>
@@ -3765,13 +3768,13 @@
         <v>387</v>
       </c>
       <c r="H40" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I40" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" t="s">
         <v>92</v>
@@ -3783,13 +3786,13 @@
         <v>388</v>
       </c>
       <c r="H41" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I41" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" t="s">
         <v>93</v>
@@ -3801,13 +3804,13 @@
         <v>388</v>
       </c>
       <c r="H42" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I42" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" t="s">
         <v>94</v>
@@ -3819,13 +3822,13 @@
         <v>389</v>
       </c>
       <c r="H43" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I43" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" t="s">
         <v>95</v>
@@ -3837,13 +3840,13 @@
         <v>390</v>
       </c>
       <c r="H44" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I44" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" t="s">
         <v>96</v>
@@ -3855,13 +3858,13 @@
         <v>391</v>
       </c>
       <c r="H45" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I45" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" t="s">
         <v>97</v>
@@ -3873,13 +3876,13 @@
         <v>391</v>
       </c>
       <c r="H46" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I46" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" t="s">
         <v>98</v>
@@ -3891,13 +3894,13 @@
         <v>392</v>
       </c>
       <c r="H47" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I47" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" t="s">
         <v>99</v>
@@ -3909,13 +3912,13 @@
         <v>392</v>
       </c>
       <c r="H48" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I48" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" t="s">
         <v>100</v>
@@ -3927,13 +3930,13 @@
         <v>393</v>
       </c>
       <c r="H49" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I49" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" t="s">
         <v>101</v>
@@ -3945,13 +3948,13 @@
         <v>393</v>
       </c>
       <c r="H50" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I50" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" t="s">
         <v>102</v>
@@ -3963,13 +3966,13 @@
         <v>391</v>
       </c>
       <c r="H51" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I51" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" t="s">
         <v>103</v>
@@ -3981,13 +3984,13 @@
         <v>391</v>
       </c>
       <c r="H52" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I52" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" t="s">
         <v>104</v>
@@ -3999,13 +4002,13 @@
         <v>394</v>
       </c>
       <c r="H53" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I53" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" t="s">
         <v>105</v>
@@ -4017,13 +4020,13 @@
         <v>394</v>
       </c>
       <c r="H54" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I54" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" t="s">
         <v>106</v>
@@ -4035,13 +4038,13 @@
         <v>395</v>
       </c>
       <c r="H55" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I55" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" t="s">
         <v>107</v>
@@ -4053,13 +4056,13 @@
         <v>395</v>
       </c>
       <c r="H56" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I56" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" t="s">
         <v>108</v>
@@ -4071,13 +4074,13 @@
         <v>396</v>
       </c>
       <c r="H57" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I57" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" t="s">
         <v>109</v>
@@ -4089,10 +4092,10 @@
         <v>397</v>
       </c>
       <c r="I58" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" t="s">
         <v>110</v>
@@ -4104,13 +4107,13 @@
         <v>388</v>
       </c>
       <c r="H59" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I59" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" t="s">
         <v>111</v>
@@ -4122,13 +4125,13 @@
         <v>388</v>
       </c>
       <c r="H60" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I60" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" t="s">
         <v>112</v>
@@ -4140,13 +4143,13 @@
         <v>388</v>
       </c>
       <c r="H61" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I61" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" t="s">
         <v>113</v>
@@ -4158,13 +4161,13 @@
         <v>388</v>
       </c>
       <c r="H62" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I62" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" t="s">
         <v>114</v>
@@ -4176,13 +4179,13 @@
         <v>388</v>
       </c>
       <c r="H63" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I63" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" t="s">
         <v>115</v>
@@ -4194,13 +4197,13 @@
         <v>388</v>
       </c>
       <c r="H64" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I64" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" t="s">
         <v>116</v>
@@ -4212,13 +4215,13 @@
         <v>388</v>
       </c>
       <c r="H65" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I65" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" t="s">
         <v>117</v>
@@ -4230,13 +4233,13 @@
         <v>388</v>
       </c>
       <c r="H66" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I66" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" t="s">
         <v>118</v>
@@ -4248,13 +4251,13 @@
         <v>398</v>
       </c>
       <c r="H67" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I67" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" t="s">
         <v>119</v>
@@ -4266,13 +4269,13 @@
         <v>398</v>
       </c>
       <c r="H68" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I68" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" t="s">
         <v>120</v>
@@ -4284,13 +4287,13 @@
         <v>388</v>
       </c>
       <c r="H69" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I69" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" t="s">
         <v>121</v>
@@ -4302,13 +4305,13 @@
         <v>388</v>
       </c>
       <c r="H70" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I70" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>363</v>
       </c>
@@ -4322,13 +4325,13 @@
         <v>399</v>
       </c>
       <c r="H71" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I71" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" t="s">
         <v>123</v>
@@ -4340,13 +4343,13 @@
         <v>400</v>
       </c>
       <c r="H72" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I72" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>364</v>
       </c>
@@ -4360,13 +4363,13 @@
         <v>389</v>
       </c>
       <c r="H73" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I73" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" t="s">
         <v>125</v>
@@ -4378,13 +4381,13 @@
         <v>389</v>
       </c>
       <c r="H74" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I74" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" t="s">
         <v>126</v>
@@ -4396,13 +4399,13 @@
         <v>389</v>
       </c>
       <c r="H75" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I75" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" t="s">
         <v>127</v>
@@ -4414,10 +4417,10 @@
         <v>389</v>
       </c>
       <c r="I76" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" t="s">
         <v>128</v>
@@ -4429,13 +4432,13 @@
         <v>401</v>
       </c>
       <c r="H77" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I77" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" t="s">
         <v>129</v>
@@ -4447,10 +4450,10 @@
         <v>401</v>
       </c>
       <c r="I78" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" t="s">
         <v>130</v>
@@ -4462,13 +4465,13 @@
         <v>402</v>
       </c>
       <c r="H79" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I79" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" t="s">
         <v>131</v>
@@ -4480,10 +4483,10 @@
         <v>402</v>
       </c>
       <c r="I80" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" t="s">
         <v>132</v>
@@ -4495,13 +4498,13 @@
         <v>403</v>
       </c>
       <c r="H81" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I81" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" t="s">
         <v>133</v>
@@ -4513,10 +4516,10 @@
         <v>403</v>
       </c>
       <c r="I82" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" t="s">
         <v>134</v>
@@ -4528,13 +4531,13 @@
         <v>376</v>
       </c>
       <c r="H83" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I83" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" t="s">
         <v>135</v>
@@ -4546,10 +4549,10 @@
         <v>376</v>
       </c>
       <c r="I84" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" t="s">
         <v>136</v>
@@ -4561,10 +4564,10 @@
         <v>404</v>
       </c>
       <c r="I85" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" t="s">
         <v>137</v>
@@ -4576,13 +4579,13 @@
         <v>404</v>
       </c>
       <c r="H86" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I86" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" t="s">
         <v>138</v>
@@ -4594,10 +4597,10 @@
         <v>387</v>
       </c>
       <c r="I87" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" t="s">
         <v>139</v>
@@ -4609,13 +4612,13 @@
         <v>387</v>
       </c>
       <c r="H88" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I88" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" t="s">
         <v>140</v>
@@ -4627,13 +4630,13 @@
         <v>405</v>
       </c>
       <c r="H89" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I89" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" t="s">
         <v>141</v>
@@ -4645,13 +4648,13 @@
         <v>405</v>
       </c>
       <c r="H90" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I90" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" t="s">
         <v>142</v>
@@ -4663,13 +4666,13 @@
         <v>405</v>
       </c>
       <c r="H91" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I91" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" t="s">
         <v>143</v>
@@ -4681,13 +4684,13 @@
         <v>405</v>
       </c>
       <c r="H92" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I92" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" t="s">
         <v>144</v>
@@ -4699,13 +4702,13 @@
         <v>405</v>
       </c>
       <c r="H93" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I93" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" t="s">
         <v>145</v>
@@ -4717,13 +4720,13 @@
         <v>405</v>
       </c>
       <c r="H94" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I94" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" t="s">
         <v>146</v>
@@ -4735,10 +4738,10 @@
         <v>399</v>
       </c>
       <c r="I95" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" t="s">
         <v>147</v>
@@ -4750,13 +4753,13 @@
         <v>399</v>
       </c>
       <c r="H96" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I96" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" t="s">
         <v>148</v>
@@ -4768,10 +4771,10 @@
         <v>400</v>
       </c>
       <c r="I97" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" t="s">
         <v>149</v>
@@ -4783,13 +4786,13 @@
         <v>400</v>
       </c>
       <c r="H98" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I98" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" t="s">
         <v>150</v>
@@ -4801,13 +4804,13 @@
         <v>406</v>
       </c>
       <c r="H99" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I99" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" t="s">
         <v>151</v>
@@ -4819,13 +4822,13 @@
         <v>407</v>
       </c>
       <c r="H100" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I100" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" t="s">
         <v>152</v>
@@ -4837,13 +4840,13 @@
         <v>408</v>
       </c>
       <c r="H101" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I101" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>365</v>
       </c>
@@ -4857,10 +4860,10 @@
         <v>409</v>
       </c>
       <c r="I102" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" t="s">
         <v>154</v>
@@ -4872,13 +4875,13 @@
         <v>410</v>
       </c>
       <c r="H103" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I103" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" t="s">
         <v>155</v>
@@ -4890,13 +4893,13 @@
         <v>410</v>
       </c>
       <c r="H104" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I104" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" t="s">
         <v>156</v>
@@ -4908,13 +4911,13 @@
         <v>411</v>
       </c>
       <c r="H105" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I105" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" t="s">
         <v>157</v>
@@ -4926,13 +4929,13 @@
         <v>412</v>
       </c>
       <c r="H106" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I106" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" t="s">
         <v>158</v>
@@ -4944,13 +4947,13 @@
         <v>412</v>
       </c>
       <c r="H107" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I107" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" t="s">
         <v>159</v>
@@ -4962,13 +4965,13 @@
         <v>412</v>
       </c>
       <c r="H108" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I108" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" t="s">
         <v>160</v>
@@ -4980,13 +4983,13 @@
         <v>413</v>
       </c>
       <c r="H109" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I109" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" t="s">
         <v>161</v>
@@ -4998,13 +5001,13 @@
         <v>413</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I110" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" t="s">
         <v>162</v>
@@ -5016,13 +5019,13 @@
         <v>414</v>
       </c>
       <c r="H111" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I111" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" t="s">
         <v>163</v>
@@ -5034,13 +5037,13 @@
         <v>415</v>
       </c>
       <c r="H112" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I112" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" t="s">
         <v>164</v>
@@ -5052,13 +5055,13 @@
         <v>415</v>
       </c>
       <c r="H113" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I113" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" t="s">
         <v>165</v>
@@ -5070,13 +5073,13 @@
         <v>416</v>
       </c>
       <c r="H114" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I114" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" t="s">
         <v>166</v>
@@ -5088,13 +5091,13 @@
         <v>416</v>
       </c>
       <c r="H115" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I115" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" t="s">
         <v>167</v>
@@ -5106,10 +5109,10 @@
         <v>417</v>
       </c>
       <c r="H116" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" t="s">
         <v>168</v>
@@ -5121,10 +5124,10 @@
         <v>418</v>
       </c>
       <c r="I117" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" t="s">
         <v>169</v>
@@ -5136,13 +5139,13 @@
         <v>419</v>
       </c>
       <c r="H118" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I118" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" t="s">
         <v>170</v>
@@ -5154,13 +5157,13 @@
         <v>419</v>
       </c>
       <c r="H119" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I119" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" t="s">
         <v>171</v>
@@ -5172,13 +5175,13 @@
         <v>420</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I120" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" t="s">
         <v>172</v>
@@ -5190,13 +5193,13 @@
         <v>421</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I121" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" t="s">
         <v>173</v>
@@ -5208,13 +5211,13 @@
         <v>421</v>
       </c>
       <c r="H122" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I122" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" t="s">
         <v>174</v>
@@ -5226,13 +5229,13 @@
         <v>421</v>
       </c>
       <c r="H123" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I123" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" t="s">
         <v>175</v>
@@ -5244,10 +5247,10 @@
         <v>422</v>
       </c>
       <c r="I124" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" t="s">
         <v>176</v>
@@ -5259,13 +5262,13 @@
         <v>423</v>
       </c>
       <c r="H125" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I125" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" t="s">
         <v>177</v>
@@ -5277,13 +5280,13 @@
         <v>424</v>
       </c>
       <c r="H126" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I126" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" t="s">
         <v>178</v>
@@ -5295,13 +5298,13 @@
         <v>425</v>
       </c>
       <c r="H127" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I127" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" t="s">
         <v>179</v>
@@ -5313,13 +5316,13 @@
         <v>425</v>
       </c>
       <c r="H128" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I128" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" t="s">
         <v>180</v>
@@ -5331,13 +5334,13 @@
         <v>425</v>
       </c>
       <c r="H129" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I129" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" t="s">
         <v>181</v>
@@ -5349,13 +5352,13 @@
         <v>426</v>
       </c>
       <c r="H130" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I130" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" t="s">
         <v>182</v>
@@ -5367,13 +5370,13 @@
         <v>427</v>
       </c>
       <c r="H131" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I131" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>366</v>
       </c>
@@ -5387,13 +5390,13 @@
         <v>428</v>
       </c>
       <c r="H132" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I132" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" t="s">
         <v>184</v>
@@ -5405,13 +5408,13 @@
         <v>428</v>
       </c>
       <c r="H133" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I133" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" t="s">
         <v>185</v>
@@ -5423,10 +5426,10 @@
         <v>429</v>
       </c>
       <c r="I134" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" t="s">
         <v>186</v>
@@ -5438,10 +5441,10 @@
         <v>430</v>
       </c>
       <c r="I135" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" t="s">
         <v>187</v>
@@ -5453,13 +5456,13 @@
         <v>431</v>
       </c>
       <c r="H136" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I136" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" t="s">
         <v>188</v>
@@ -5471,13 +5474,13 @@
         <v>432</v>
       </c>
       <c r="H137" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I137" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" t="s">
         <v>189</v>
@@ -5489,13 +5492,13 @@
         <v>433</v>
       </c>
       <c r="H138" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I138" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" t="s">
         <v>190</v>
@@ -5507,13 +5510,13 @@
         <v>434</v>
       </c>
       <c r="H139" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I139" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" t="s">
         <v>191</v>
@@ -5525,13 +5528,13 @@
         <v>435</v>
       </c>
       <c r="H140" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I140" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" t="s">
         <v>192</v>
@@ -5543,13 +5546,13 @@
         <v>436</v>
       </c>
       <c r="H141" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I141" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" t="s">
         <v>193</v>
@@ -5561,13 +5564,13 @@
         <v>437</v>
       </c>
       <c r="H142" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I142" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" t="s">
         <v>194</v>
@@ -5579,13 +5582,13 @@
         <v>438</v>
       </c>
       <c r="H143" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I143" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" t="s">
         <v>195</v>
@@ -5597,13 +5600,13 @@
         <v>439</v>
       </c>
       <c r="H144" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I144" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" t="s">
         <v>196</v>
@@ -5615,13 +5618,13 @@
         <v>440</v>
       </c>
       <c r="H145" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I145" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" t="s">
         <v>197</v>
@@ -5633,13 +5636,13 @@
         <v>441</v>
       </c>
       <c r="H146" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I146" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="C147" t="s">
         <v>198</v>
@@ -5651,13 +5654,13 @@
         <v>442</v>
       </c>
       <c r="H147" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I147" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
       <c r="C148" t="s">
         <v>199</v>
@@ -5669,13 +5672,13 @@
         <v>442</v>
       </c>
       <c r="H148" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I148" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" t="s">
         <v>200</v>
@@ -5687,13 +5690,13 @@
         <v>442</v>
       </c>
       <c r="H149" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I149" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" t="s">
         <v>201</v>
@@ -5705,13 +5708,13 @@
         <v>442</v>
       </c>
       <c r="H150" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I150" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" t="s">
         <v>202</v>
@@ -5723,13 +5726,13 @@
         <v>442</v>
       </c>
       <c r="H151" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I151" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" t="s">
         <v>203</v>
@@ -5741,10 +5744,10 @@
         <v>442</v>
       </c>
       <c r="H152" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" t="s">
         <v>204</v>
@@ -5756,13 +5759,13 @@
         <v>443</v>
       </c>
       <c r="H153" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I153" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" t="s">
         <v>205</v>
@@ -5774,13 +5777,13 @@
         <v>443</v>
       </c>
       <c r="H154" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I154" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" t="s">
         <v>206</v>
@@ -5792,13 +5795,13 @@
         <v>443</v>
       </c>
       <c r="H155" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I155" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
       <c r="C156" t="s">
         <v>207</v>
@@ -5810,10 +5813,10 @@
         <v>443</v>
       </c>
       <c r="H156" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" t="s">
         <v>208</v>
@@ -5825,13 +5828,13 @@
         <v>444</v>
       </c>
       <c r="H157" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I157" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" t="s">
         <v>209</v>
@@ -5843,13 +5846,13 @@
         <v>444</v>
       </c>
       <c r="H158" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I158" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" t="s">
         <v>210</v>
@@ -5861,13 +5864,13 @@
         <v>444</v>
       </c>
       <c r="H159" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I159" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" t="s">
         <v>211</v>
@@ -5879,10 +5882,10 @@
         <v>444</v>
       </c>
       <c r="H160" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" t="s">
         <v>212</v>
@@ -5894,13 +5897,13 @@
         <v>445</v>
       </c>
       <c r="H161" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I161" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" t="s">
         <v>213</v>
@@ -5912,13 +5915,13 @@
         <v>445</v>
       </c>
       <c r="H162" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I162" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" t="s">
         <v>214</v>
@@ -5930,13 +5933,13 @@
         <v>445</v>
       </c>
       <c r="H163" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I163" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" t="s">
         <v>215</v>
@@ -5948,10 +5951,10 @@
         <v>445</v>
       </c>
       <c r="H164" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" t="s">
         <v>216</v>
@@ -5963,13 +5966,13 @@
         <v>446</v>
       </c>
       <c r="H165" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I165" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
       <c r="C166" t="s">
         <v>217</v>
@@ -5981,13 +5984,13 @@
         <v>446</v>
       </c>
       <c r="H166" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I166" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" t="s">
         <v>218</v>
@@ -5999,13 +6002,13 @@
         <v>446</v>
       </c>
       <c r="H167" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I167" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" t="s">
         <v>219</v>
@@ -6017,10 +6020,10 @@
         <v>446</v>
       </c>
       <c r="H168" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" t="s">
         <v>220</v>
@@ -6032,13 +6035,13 @@
         <v>447</v>
       </c>
       <c r="H169" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I169" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" t="s">
         <v>221</v>
@@ -6050,13 +6053,13 @@
         <v>447</v>
       </c>
       <c r="H170" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I170" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" t="s">
         <v>222</v>
@@ -6068,13 +6071,13 @@
         <v>447</v>
       </c>
       <c r="H171" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I171" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" t="s">
         <v>223</v>
@@ -6086,10 +6089,10 @@
         <v>447</v>
       </c>
       <c r="H172" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" t="s">
         <v>224</v>
@@ -6101,13 +6104,13 @@
         <v>448</v>
       </c>
       <c r="H173" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I173" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" t="s">
         <v>225</v>
@@ -6119,13 +6122,13 @@
         <v>448</v>
       </c>
       <c r="H174" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I174" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" t="s">
         <v>226</v>
@@ -6137,13 +6140,13 @@
         <v>448</v>
       </c>
       <c r="H175" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I175" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" t="s">
         <v>227</v>
@@ -6155,10 +6158,10 @@
         <v>448</v>
       </c>
       <c r="H176" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" t="s">
         <v>228</v>
@@ -6170,13 +6173,13 @@
         <v>449</v>
       </c>
       <c r="H177" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I177" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" t="s">
         <v>229</v>
@@ -6188,13 +6191,13 @@
         <v>449</v>
       </c>
       <c r="H178" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I178" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" t="s">
         <v>230</v>
@@ -6206,13 +6209,13 @@
         <v>449</v>
       </c>
       <c r="H179" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I179" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" t="s">
         <v>231</v>
@@ -6224,10 +6227,10 @@
         <v>450</v>
       </c>
       <c r="I180" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" t="s">
         <v>232</v>
@@ -6239,13 +6242,13 @@
         <v>451</v>
       </c>
       <c r="H181" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I181" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" t="s">
         <v>233</v>
@@ -6257,13 +6260,13 @@
         <v>452</v>
       </c>
       <c r="H182" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I182" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" t="s">
         <v>233</v>
@@ -6275,13 +6278,13 @@
         <v>452</v>
       </c>
       <c r="H183" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I183" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" t="s">
         <v>234</v>
@@ -6293,13 +6296,13 @@
         <v>452</v>
       </c>
       <c r="H184" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I184" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" t="s">
         <v>235</v>
@@ -6311,13 +6314,13 @@
         <v>453</v>
       </c>
       <c r="H185" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I185" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
       <c r="C186" t="s">
         <v>236</v>
@@ -6329,13 +6332,13 @@
         <v>454</v>
       </c>
       <c r="H186" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I186" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
       <c r="C187" t="s">
         <v>237</v>
@@ -6347,13 +6350,13 @@
         <v>455</v>
       </c>
       <c r="H187" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I187" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
       <c r="C188" t="s">
         <v>238</v>
@@ -6365,13 +6368,13 @@
         <v>456</v>
       </c>
       <c r="H188" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I188" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
       <c r="C189" t="s">
         <v>239</v>
@@ -6383,13 +6386,13 @@
         <v>457</v>
       </c>
       <c r="H189" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I189" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
       <c r="C190" t="s">
         <v>240</v>
@@ -6401,13 +6404,13 @@
         <v>457</v>
       </c>
       <c r="H190" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I190" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
       <c r="C191" t="s">
         <v>241</v>
@@ -6419,13 +6422,13 @@
         <v>458</v>
       </c>
       <c r="H191" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I191" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" t="s">
         <v>197</v>
@@ -6437,13 +6440,13 @@
         <v>441</v>
       </c>
       <c r="H192" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I192" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
       <c r="C193" t="s">
         <v>242</v>
@@ -6455,13 +6458,13 @@
         <v>459</v>
       </c>
       <c r="H193" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I193" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
       <c r="C194" t="s">
         <v>243</v>
@@ -6473,13 +6476,13 @@
         <v>460</v>
       </c>
       <c r="H194" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I194" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
       <c r="C195" t="s">
         <v>244</v>
@@ -6491,13 +6494,13 @@
         <v>460</v>
       </c>
       <c r="H195" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I195" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
       <c r="C196" t="s">
         <v>245</v>
@@ -6509,13 +6512,13 @@
         <v>460</v>
       </c>
       <c r="H196" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I196" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
       <c r="C197" t="s">
         <v>246</v>
@@ -6527,13 +6530,13 @@
         <v>460</v>
       </c>
       <c r="H197" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I197" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
       <c r="C198" t="s">
         <v>247</v>
@@ -6545,13 +6548,13 @@
         <v>461</v>
       </c>
       <c r="H198" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I198" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
       <c r="C199" t="s">
         <v>248</v>
@@ -6563,13 +6566,13 @@
         <v>461</v>
       </c>
       <c r="H199" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I199" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" t="s">
         <v>249</v>
@@ -6581,13 +6584,13 @@
         <v>461</v>
       </c>
       <c r="H200" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I200" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
       <c r="C201" t="s">
         <v>250</v>
@@ -6599,13 +6602,13 @@
         <v>462</v>
       </c>
       <c r="H201" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I201" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
       <c r="C202" t="s">
         <v>251</v>
@@ -6617,13 +6620,13 @@
         <v>462</v>
       </c>
       <c r="H202" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I202" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
       <c r="C203" t="s">
         <v>252</v>
@@ -6635,13 +6638,13 @@
         <v>462</v>
       </c>
       <c r="H203" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I203" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
       <c r="C204" t="s">
         <v>253</v>
@@ -6653,13 +6656,13 @@
         <v>463</v>
       </c>
       <c r="H204" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I204" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
       <c r="C205" t="s">
         <v>254</v>
@@ -6671,13 +6674,13 @@
         <v>463</v>
       </c>
       <c r="H205" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I205" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
       <c r="C206" t="s">
         <v>255</v>
@@ -6689,13 +6692,13 @@
         <v>463</v>
       </c>
       <c r="H206" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I206" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
       <c r="C207" t="s">
         <v>256</v>
@@ -6707,10 +6710,10 @@
         <v>464</v>
       </c>
       <c r="I207" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" t="s">
         <v>257</v>
@@ -6722,10 +6725,10 @@
         <v>465</v>
       </c>
       <c r="I208" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
       <c r="C209" t="s">
         <v>258</v>
@@ -6737,13 +6740,13 @@
         <v>466</v>
       </c>
       <c r="H209" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I209" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
       <c r="C210" t="s">
         <v>259</v>
@@ -6755,13 +6758,13 @@
         <v>467</v>
       </c>
       <c r="H210" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I210" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
       <c r="C211" t="s">
         <v>260</v>
@@ -6773,13 +6776,13 @@
         <v>467</v>
       </c>
       <c r="H211" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I211" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
       <c r="C212" t="s">
         <v>261</v>
@@ -6791,13 +6794,13 @@
         <v>468</v>
       </c>
       <c r="H212" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I212" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
       <c r="C213" t="s">
         <v>262</v>
@@ -6809,13 +6812,13 @@
         <v>469</v>
       </c>
       <c r="H213" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I213" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
       <c r="C214" t="s">
         <v>262</v>
@@ -6827,13 +6830,13 @@
         <v>469</v>
       </c>
       <c r="H214" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I214" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
       <c r="C215" t="s">
         <v>263</v>
@@ -6845,13 +6848,13 @@
         <v>470</v>
       </c>
       <c r="H215" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I215" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
       <c r="C216" t="s">
         <v>264</v>
@@ -6863,13 +6866,13 @@
         <v>471</v>
       </c>
       <c r="H216" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I216" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
       <c r="C217" t="s">
         <v>265</v>
@@ -6881,13 +6884,13 @@
         <v>471</v>
       </c>
       <c r="H217" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I217" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
       <c r="C218" t="s">
         <v>266</v>
@@ -6899,13 +6902,13 @@
         <v>472</v>
       </c>
       <c r="H218" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I218" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
       <c r="C219" t="s">
         <v>267</v>
@@ -6917,13 +6920,13 @@
         <v>473</v>
       </c>
       <c r="H219" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I219" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
       <c r="C220" t="s">
         <v>268</v>
@@ -6935,13 +6938,13 @@
         <v>474</v>
       </c>
       <c r="H220" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I220" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
       <c r="C221" t="s">
         <v>269</v>
@@ -6953,13 +6956,13 @@
         <v>475</v>
       </c>
       <c r="H221" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I221" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
       <c r="C222" t="s">
         <v>270</v>
@@ -6971,13 +6974,13 @@
         <v>475</v>
       </c>
       <c r="H222" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I222" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
       <c r="C223" t="s">
         <v>271</v>
@@ -6989,13 +6992,13 @@
         <v>475</v>
       </c>
       <c r="H223" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I223" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
       <c r="C224" t="s">
         <v>272</v>
@@ -7007,13 +7010,13 @@
         <v>476</v>
       </c>
       <c r="H224" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I224" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
       <c r="C225" t="s">
         <v>273</v>
@@ -7025,13 +7028,13 @@
         <v>477</v>
       </c>
       <c r="H225" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I225" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
       <c r="C226" t="s">
         <v>274</v>
@@ -7043,13 +7046,13 @@
         <v>478</v>
       </c>
       <c r="H226" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I226" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
       <c r="C227" t="s">
         <v>275</v>
@@ -7061,13 +7064,13 @@
         <v>479</v>
       </c>
       <c r="H227" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I227" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
       <c r="C228" t="s">
         <v>276</v>
@@ -7079,13 +7082,13 @@
         <v>480</v>
       </c>
       <c r="H228" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I228" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
       <c r="C229" t="s">
         <v>277</v>
@@ -7097,13 +7100,13 @@
         <v>481</v>
       </c>
       <c r="H229" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I229" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
         <v>367</v>
       </c>
@@ -7117,13 +7120,13 @@
         <v>482</v>
       </c>
       <c r="H230" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I230" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
       <c r="C231" t="s">
         <v>279</v>
@@ -7135,13 +7138,13 @@
         <v>482</v>
       </c>
       <c r="H231" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I231" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" t="s">
         <v>280</v>
@@ -7153,13 +7156,13 @@
         <v>482</v>
       </c>
       <c r="H232" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I232" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
       <c r="C233" t="s">
         <v>281</v>
@@ -7171,13 +7174,13 @@
         <v>482</v>
       </c>
       <c r="H233" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I233" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="6"/>
       <c r="C234" t="s">
         <v>282</v>
@@ -7189,13 +7192,13 @@
         <v>482</v>
       </c>
       <c r="H234" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I234" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="6"/>
       <c r="C235" t="s">
         <v>283</v>
@@ -7207,13 +7210,13 @@
         <v>482</v>
       </c>
       <c r="H235" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I235" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="6"/>
       <c r="C236" t="s">
         <v>284</v>
@@ -7225,13 +7228,13 @@
         <v>483</v>
       </c>
       <c r="H236" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I236" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="6"/>
       <c r="C237" t="s">
         <v>285</v>
@@ -7243,13 +7246,13 @@
         <v>483</v>
       </c>
       <c r="H237" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I237" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="6"/>
       <c r="C238" t="s">
         <v>286</v>
@@ -7261,13 +7264,13 @@
         <v>483</v>
       </c>
       <c r="H238" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I238" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="6"/>
       <c r="C239" t="s">
         <v>287</v>
@@ -7279,13 +7282,13 @@
         <v>484</v>
       </c>
       <c r="H239" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I239" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" t="s">
         <v>288</v>
@@ -7297,13 +7300,13 @@
         <v>484</v>
       </c>
       <c r="H240" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I240" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="6"/>
       <c r="C241" t="s">
         <v>289</v>
@@ -7315,13 +7318,13 @@
         <v>484</v>
       </c>
       <c r="H241" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I241" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="6"/>
       <c r="C242" t="s">
         <v>290</v>
@@ -7333,13 +7336,13 @@
         <v>485</v>
       </c>
       <c r="H242" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I242" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="6"/>
       <c r="C243" t="s">
         <v>291</v>
@@ -7351,13 +7354,13 @@
         <v>485</v>
       </c>
       <c r="H243" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I243" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="6"/>
       <c r="C244" t="s">
         <v>292</v>
@@ -7369,13 +7372,13 @@
         <v>485</v>
       </c>
       <c r="H244" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I244" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="6"/>
       <c r="C245" t="s">
         <v>293</v>
@@ -7387,13 +7390,13 @@
         <v>486</v>
       </c>
       <c r="H245" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I245" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="6"/>
       <c r="C246" t="s">
         <v>294</v>
@@ -7405,13 +7408,13 @@
         <v>487</v>
       </c>
       <c r="H246" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I246" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="6"/>
       <c r="C247" t="s">
         <v>295</v>
@@ -7423,13 +7426,13 @@
         <v>488</v>
       </c>
       <c r="H247" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I247" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="6"/>
       <c r="C248" t="s">
         <v>296</v>
@@ -7441,13 +7444,13 @@
         <v>488</v>
       </c>
       <c r="H248" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I248" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="6"/>
       <c r="C249" t="s">
         <v>297</v>
@@ -7459,13 +7462,13 @@
         <v>489</v>
       </c>
       <c r="H249" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I249" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="6"/>
       <c r="C250" t="s">
         <v>298</v>
@@ -7477,13 +7480,13 @@
         <v>490</v>
       </c>
       <c r="H250" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I250" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="6"/>
       <c r="C251" t="s">
         <v>299</v>
@@ -7495,13 +7498,13 @@
         <v>489</v>
       </c>
       <c r="H251" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I251" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="6"/>
       <c r="C252" t="s">
         <v>300</v>
@@ -7513,13 +7516,13 @@
         <v>489</v>
       </c>
       <c r="H252" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I252" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="6"/>
       <c r="C253" t="s">
         <v>301</v>
@@ -7531,13 +7534,13 @@
         <v>489</v>
       </c>
       <c r="H253" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I253" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="6"/>
       <c r="C254" t="s">
         <v>302</v>
@@ -7549,13 +7552,13 @@
         <v>491</v>
       </c>
       <c r="H254" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I254" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="6"/>
       <c r="C255" t="s">
         <v>303</v>
@@ -7567,13 +7570,13 @@
         <v>491</v>
       </c>
       <c r="H255" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I255" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="6"/>
       <c r="C256" t="s">
         <v>304</v>
@@ -7585,13 +7588,13 @@
         <v>491</v>
       </c>
       <c r="H256" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I256" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="6"/>
       <c r="C257" t="s">
         <v>305</v>
@@ -7603,13 +7606,13 @@
         <v>491</v>
       </c>
       <c r="H257" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I257" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="6"/>
       <c r="C258" t="s">
         <v>306</v>
@@ -7621,13 +7624,13 @@
         <v>491</v>
       </c>
       <c r="H258" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I258" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="6"/>
       <c r="C259" t="s">
         <v>307</v>
@@ -7639,13 +7642,13 @@
         <v>491</v>
       </c>
       <c r="H259" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I259" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="6"/>
       <c r="C260" t="s">
         <v>308</v>
@@ -7657,13 +7660,13 @@
         <v>491</v>
       </c>
       <c r="H260" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I260" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="6"/>
       <c r="C261" t="s">
         <v>309</v>
@@ -7675,13 +7678,13 @@
         <v>491</v>
       </c>
       <c r="H261" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I261" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="6"/>
       <c r="C262" t="s">
         <v>310</v>
@@ -7693,13 +7696,13 @@
         <v>492</v>
       </c>
       <c r="H262" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I262" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="6"/>
       <c r="C263" t="s">
         <v>311</v>
@@ -7711,13 +7714,13 @@
         <v>492</v>
       </c>
       <c r="H263" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I263" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="6"/>
       <c r="C264" t="s">
         <v>312</v>
@@ -7729,13 +7732,13 @@
         <v>492</v>
       </c>
       <c r="H264" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I264" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="6"/>
       <c r="C265" t="s">
         <v>313</v>
@@ -7747,13 +7750,13 @@
         <v>492</v>
       </c>
       <c r="H265" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I265" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="6"/>
       <c r="C266" t="s">
         <v>314</v>
@@ -7765,13 +7768,13 @@
         <v>492</v>
       </c>
       <c r="H266" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I266" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="6"/>
       <c r="C267" t="s">
         <v>315</v>
@@ -7783,13 +7786,13 @@
         <v>492</v>
       </c>
       <c r="H267" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I267" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="6"/>
       <c r="C268" t="s">
         <v>316</v>
@@ -7801,13 +7804,13 @@
         <v>492</v>
       </c>
       <c r="H268" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I268" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="6"/>
       <c r="C269" t="s">
         <v>317</v>
@@ -7819,13 +7822,13 @@
         <v>482</v>
       </c>
       <c r="H269" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I269" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="6"/>
       <c r="C270" t="s">
         <v>318</v>
@@ -7837,13 +7840,13 @@
         <v>492</v>
       </c>
       <c r="H270" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I270" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="6"/>
       <c r="C271" t="s">
         <v>319</v>
@@ -7855,13 +7858,13 @@
         <v>491</v>
       </c>
       <c r="H271" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I271" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="6"/>
       <c r="C272" t="s">
         <v>320</v>
@@ -7873,13 +7876,13 @@
         <v>489</v>
       </c>
       <c r="H272" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I272" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="6"/>
       <c r="C273" t="s">
         <v>321</v>
@@ -7891,10 +7894,10 @@
         <v>493</v>
       </c>
       <c r="I273" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="6"/>
       <c r="C274" t="s">
         <v>322</v>
@@ -7906,10 +7909,10 @@
         <v>494</v>
       </c>
       <c r="I274" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="6"/>
       <c r="C275" t="s">
         <v>323</v>
@@ -7921,10 +7924,10 @@
         <v>402</v>
       </c>
       <c r="I275" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="6"/>
       <c r="C276" t="s">
         <v>324</v>
@@ -7936,10 +7939,10 @@
         <v>495</v>
       </c>
       <c r="I276" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="6"/>
       <c r="C277" t="s">
         <v>325</v>
@@ -7951,13 +7954,13 @@
         <v>482</v>
       </c>
       <c r="H277" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I277" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="6"/>
       <c r="C278" t="s">
         <v>326</v>
@@ -7969,13 +7972,13 @@
         <v>496</v>
       </c>
       <c r="H278" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I278" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="6"/>
       <c r="C279" t="s">
         <v>327</v>
@@ -7987,13 +7990,13 @@
         <v>497</v>
       </c>
       <c r="H279" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I279" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="6"/>
       <c r="C280" t="s">
         <v>328</v>
@@ -8005,10 +8008,10 @@
         <v>498</v>
       </c>
       <c r="I280" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="6"/>
       <c r="C281" t="s">
         <v>329</v>
@@ -8020,13 +8023,13 @@
         <v>496</v>
       </c>
       <c r="H281" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="I281" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="6"/>
       <c r="C282" t="s">
         <v>330</v>
@@ -8038,13 +8041,13 @@
         <v>499</v>
       </c>
       <c r="H282" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I282" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="6"/>
       <c r="C283" t="s">
         <v>331</v>
@@ -8056,13 +8059,13 @@
         <v>499</v>
       </c>
       <c r="H283" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I283" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="6"/>
       <c r="C284" t="s">
         <v>332</v>
@@ -8074,10 +8077,10 @@
         <v>376</v>
       </c>
       <c r="I284" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="6"/>
       <c r="C285" t="s">
         <v>333</v>
@@ -8089,13 +8092,13 @@
         <v>376</v>
       </c>
       <c r="H285" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I285" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="6"/>
       <c r="C286" t="s">
         <v>334</v>
@@ -8107,13 +8110,13 @@
         <v>500</v>
       </c>
       <c r="H286" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I286" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="6"/>
       <c r="C287" t="s">
         <v>335</v>
@@ -8125,13 +8128,13 @@
         <v>501</v>
       </c>
       <c r="H287" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I287" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="6"/>
       <c r="C288" t="s">
         <v>336</v>
@@ -8143,13 +8146,13 @@
         <v>501</v>
       </c>
       <c r="H288" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I288" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="6"/>
       <c r="C289" t="s">
         <v>337</v>
@@ -8161,13 +8164,13 @@
         <v>501</v>
       </c>
       <c r="H289" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I289" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="6"/>
       <c r="C290" t="s">
         <v>338</v>
@@ -8179,13 +8182,13 @@
         <v>501</v>
       </c>
       <c r="H290" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I290" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="6"/>
       <c r="C291" t="s">
         <v>339</v>
@@ -8197,13 +8200,13 @@
         <v>501</v>
       </c>
       <c r="H291" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I291" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="6"/>
       <c r="C292" t="s">
         <v>340</v>
@@ -8215,13 +8218,13 @@
         <v>502</v>
       </c>
       <c r="H292" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I292" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="6"/>
       <c r="C293" t="s">
         <v>341</v>
@@ -8233,13 +8236,13 @@
         <v>502</v>
       </c>
       <c r="H293" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I293" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="6" t="s">
         <v>368</v>
       </c>
@@ -8253,13 +8256,13 @@
         <v>503</v>
       </c>
       <c r="H294" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="I294" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="6"/>
       <c r="C295" t="s">
         <v>343</v>
@@ -8271,13 +8274,13 @@
         <v>503</v>
       </c>
       <c r="H295" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="I295" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="6"/>
       <c r="C296" t="s">
         <v>344</v>
@@ -8289,13 +8292,13 @@
         <v>503</v>
       </c>
       <c r="H296" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="I296" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="6"/>
       <c r="C297" t="s">
         <v>345</v>
@@ -8307,13 +8310,13 @@
         <v>503</v>
       </c>
       <c r="H297" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I297" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="6"/>
       <c r="C298" t="s">
         <v>346</v>
@@ -8325,13 +8328,13 @@
         <v>503</v>
       </c>
       <c r="H298" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I298" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="6"/>
       <c r="C299" t="s">
         <v>347</v>
@@ -8343,13 +8346,13 @@
         <v>503</v>
       </c>
       <c r="H299" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="I299" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="6"/>
       <c r="C300" t="s">
         <v>348</v>
@@ -8361,13 +8364,13 @@
         <v>504</v>
       </c>
       <c r="H300" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="I300" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="6"/>
       <c r="C301" t="s">
         <v>349</v>
@@ -8379,10 +8382,10 @@
         <v>505</v>
       </c>
       <c r="I301" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="6" t="s">
         <v>369</v>
       </c>
@@ -8396,10 +8399,10 @@
         <v>506</v>
       </c>
       <c r="I302" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="6"/>
       <c r="C303" t="s">
         <v>351</v>
@@ -8411,13 +8414,13 @@
         <v>393</v>
       </c>
       <c r="H303" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I303" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="6"/>
       <c r="C304" t="s">
         <v>352</v>
@@ -8429,10 +8432,10 @@
         <v>507</v>
       </c>
       <c r="I304" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="6"/>
       <c r="C305" t="s">
         <v>353</v>
@@ -8444,13 +8447,13 @@
         <v>394</v>
       </c>
       <c r="H305" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="I305" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="6"/>
       <c r="C306" t="s">
         <v>354</v>
@@ -8462,13 +8465,13 @@
         <v>394</v>
       </c>
       <c r="H306" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I306" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="6"/>
       <c r="C307" t="s">
         <v>355</v>
@@ -8480,13 +8483,13 @@
         <v>395</v>
       </c>
       <c r="H307" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I307" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="6"/>
       <c r="C308" t="s">
         <v>356</v>
@@ -8498,13 +8501,13 @@
         <v>391</v>
       </c>
       <c r="H308" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I308" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="6"/>
       <c r="C309" t="s">
         <v>357</v>
@@ -8516,10 +8519,10 @@
         <v>389</v>
       </c>
       <c r="I309" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="6"/>
       <c r="C310" t="s">
         <v>358</v>
@@ -8531,22 +8534,22 @@
         <v>382</v>
       </c>
       <c r="I310" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8561,20 +8564,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8603,7 +8606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8650,7 +8653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8713,7 +8716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8853,7 +8856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -8889,7 +8892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -8926,7 +8929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -8943,42 +8946,42 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -9007,13 +9010,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -9021,7 +9024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -9029,7 +9032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
